--- a/data/news_and_keyword/kosdaq/CJ프레시웨이.xlsx
+++ b/data/news_and_keyword/kosdaq/CJ프레시웨이.xlsx
@@ -1799,12 +1799,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>중국 유통기업 지분 획득 소식에 강세</t>
+          <t>중국 진출 기대감에 ‘급등’</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['중국', '유통기업', '지분', '획득', '소식에']</t>
+          <t>['중국', '진출', '기대감에', '급등']</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1825,12 +1825,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>中 회사와 합작 사업 기대감에 ‘강세’</t>
+          <t>중국 유통기업 지분 획득 소식에 강세</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['中', '회사와', '합작', '사업', '기대감에']</t>
+          <t>['중국', '유통기업', '지분', '획득', '소식에']</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1851,12 +1851,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>중국 진출 기대감에 ‘급등’</t>
+          <t>中 회사와 합작 사업 기대감에 ‘강세’</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>['중국', '진출', '기대감에', '급등']</t>
+          <t>['中', '회사와', '합작', '사업', '기대감에']</t>
         </is>
       </c>
       <c r="D55" t="n">
